--- a/biology/Médecine/Hyposomnie/Hyposomnie.xlsx
+++ b/biology/Médecine/Hyposomnie/Hyposomnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hyposomnie ou défaut de sommeil est un des troubles du sommeil avec l’hypersomnie et les parasomnies. Il faut différencier hyposomnie et insomnie : l’insomnie se réfère à une absence de sommeil, on utilisera d’ailleurs plutôt le terme d’asomnie. Il s’agit d’une carence de sommeil, soit un temps de sommeil inférieur au temps souhaité pour l’individu.
 Il existe deux types d’hyposomnie :
@@ -514,7 +526,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un trouble très courant qui touche 15 à 20 % des sujets souffrant d’hyposomnie chronique ; on l’observe notamment chez les adolescents et les salariés avec des rythmes de travail précis.
 </t>
@@ -545,7 +559,9 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hyposomnie peut se représenter avec une difficulté d’endormissement et des réveils fréquents dans la nuit. 
 </t>
@@ -576,7 +592,9 @@
           <t>Conséquences sur l'individu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut observer de nombreuses conséquences aussi bien corporelles, anatomiques, que mentales : fatigue, problème sur le plan développemental et sur la récupération cérébrale, difficulté d’intégration cognitive (mémorisation, apprentissage, …), neuronale, etc.
 </t>
@@ -607,7 +625,9 @@
           <t>Facteurs favorisant ce trouble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs pouvant favoriser ce trouble sont de nature anatomique, physiologique, psychotropes, le visionnage constant d’écrans, mais la plus fréquente est de nature psychologique.
 </t>
@@ -638,7 +658,9 @@
           <t xml:space="preserve">Traitement </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois la cause de ce trouble identifiée, il faut trouver un traitement adapté à la situation : si elle est psychologique, il faut modifier le rythme de vie de l’individu. Des thérapies sont proposées : relaxation, méditation, sophrologie, autohypnose, techniques cognitivo-comportementales, l’établissement de rituels de coucher ou de sommeil, l’activité sportive permettant la fatigue corporelle, etc. 
 </t>
